--- a/Club transfer data.xlsx
+++ b/Club transfer data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6531e53307fd59aa/Desktop/BA 22-23/ARP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{ED064637-404F-4FCE-A4B8-5DA6E932A3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BF52DD-8BEC-45CD-B65D-99F0F28471E9}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{ED064637-404F-4FCE-A4B8-5DA6E932A3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78592654-22CF-4706-AD20-65ED9B3CD219}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05018521-B0D1-45AE-8EF1-9EFD8B2F828D}"/>
   </bookViews>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E257463-C54B-4365-AEE2-64A58EE288F5}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="G284" sqref="G284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
